--- a/Code/Results/Cases/Case_9_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.46021834077628</v>
+        <v>13.70580208054443</v>
       </c>
       <c r="C2">
-        <v>7.794878073468735</v>
+        <v>7.741001341507197</v>
       </c>
       <c r="D2">
-        <v>5.354425461747236</v>
+        <v>5.338606903313508</v>
       </c>
       <c r="E2">
-        <v>7.528954974006901</v>
+        <v>7.371511463800144</v>
       </c>
       <c r="F2">
-        <v>25.7831223203702</v>
+        <v>24.29035058681971</v>
       </c>
       <c r="G2">
-        <v>36.1312328873783</v>
+        <v>33.25631741992854</v>
       </c>
       <c r="H2">
-        <v>3.168382341754891</v>
+        <v>2.994440811731057</v>
       </c>
       <c r="I2">
-        <v>3.883044254266871</v>
+        <v>3.663373120041694</v>
       </c>
       <c r="J2">
-        <v>12.16787632500077</v>
+        <v>11.76017456162814</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>15.14241350611286</v>
       </c>
       <c r="M2">
-        <v>11.28496605430414</v>
+        <v>13.25509962869042</v>
       </c>
       <c r="N2">
-        <v>6.151823635389009</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>10.45865835507275</v>
+        <v>11.25232440542724</v>
       </c>
       <c r="P2">
-        <v>14.64933117917284</v>
+        <v>6.382537920856354</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>10.23377232551661</v>
+      </c>
+      <c r="R2">
+        <v>14.19858937998312</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.6001183700017</v>
+        <v>12.90154468486763</v>
       </c>
       <c r="C3">
-        <v>7.521449458540126</v>
+        <v>7.3796593762805</v>
       </c>
       <c r="D3">
-        <v>5.276971947654708</v>
+        <v>5.231544364127413</v>
       </c>
       <c r="E3">
-        <v>7.339572708292871</v>
+        <v>7.212067033978775</v>
       </c>
       <c r="F3">
-        <v>25.16846830155146</v>
+        <v>23.79559025271032</v>
       </c>
       <c r="G3">
-        <v>35.22382144143275</v>
+        <v>32.61679162124697</v>
       </c>
       <c r="H3">
-        <v>3.379401097968235</v>
+        <v>3.186254675657552</v>
       </c>
       <c r="I3">
-        <v>4.067475807228183</v>
+        <v>3.824037361175582</v>
       </c>
       <c r="J3">
-        <v>12.07518308073264</v>
+        <v>11.66622922852036</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.16633202462639</v>
       </c>
       <c r="M3">
-        <v>10.57665410963262</v>
+        <v>13.0956976387375</v>
       </c>
       <c r="N3">
-        <v>5.972292665174446</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>10.06000544167174</v>
+        <v>10.56384226562685</v>
       </c>
       <c r="P3">
-        <v>14.76417133301841</v>
+        <v>6.206601266299984</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.85251447233126</v>
+      </c>
+      <c r="R3">
+        <v>14.32935382558028</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.04293142729682</v>
+        <v>12.37894678557641</v>
       </c>
       <c r="C4">
-        <v>7.349082282923853</v>
+        <v>7.151438129025308</v>
       </c>
       <c r="D4">
-        <v>5.227963822936183</v>
+        <v>5.164211007149437</v>
       </c>
       <c r="E4">
-        <v>7.219089073727247</v>
+        <v>7.110561323139813</v>
       </c>
       <c r="F4">
-        <v>24.79013875344482</v>
+        <v>23.49116888799342</v>
       </c>
       <c r="G4">
-        <v>34.66239556613854</v>
+        <v>32.22557848691331</v>
       </c>
       <c r="H4">
-        <v>3.513670471378654</v>
+        <v>3.30839616975278</v>
       </c>
       <c r="I4">
-        <v>4.185478700679861</v>
+        <v>3.927181707605239</v>
       </c>
       <c r="J4">
-        <v>12.02022282986696</v>
+        <v>11.60820124867551</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.177556978291</v>
       </c>
       <c r="M4">
-        <v>10.11661741305719</v>
+        <v>13.01335002356911</v>
       </c>
       <c r="N4">
-        <v>5.859274910419792</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>9.807351484717524</v>
+        <v>10.11676208732494</v>
       </c>
       <c r="P4">
-        <v>14.83549815431545</v>
+        <v>6.096239754858865</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.610613287350258</v>
+      </c>
+      <c r="R4">
+        <v>14.41046565662243</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.80221894991225</v>
+        <v>12.1525833965393</v>
       </c>
       <c r="C5">
-        <v>7.281218240037379</v>
+        <v>7.061538350763445</v>
       </c>
       <c r="D5">
-        <v>5.208423322225318</v>
+        <v>5.137346170295761</v>
       </c>
       <c r="E5">
-        <v>7.167306170445491</v>
+        <v>7.066812850386999</v>
       </c>
       <c r="F5">
-        <v>24.62505892753859</v>
+        <v>23.35679004890021</v>
       </c>
       <c r="G5">
-        <v>34.41348093907955</v>
+        <v>32.04851109213278</v>
       </c>
       <c r="H5">
-        <v>3.570005951570185</v>
+        <v>3.359672969145886</v>
       </c>
       <c r="I5">
-        <v>4.237291629308662</v>
+        <v>3.973261850983524</v>
       </c>
       <c r="J5">
-        <v>11.99477328683506</v>
+        <v>11.5810733575411</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.17421399148474</v>
       </c>
       <c r="M5">
-        <v>9.921777456458191</v>
+        <v>12.97884988573454</v>
       </c>
       <c r="N5">
-        <v>5.813135216974596</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>9.700820840137581</v>
+        <v>9.927470612019103</v>
       </c>
       <c r="P5">
-        <v>14.86259297158155</v>
+        <v>6.051268044488902</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.508549598606329</v>
+      </c>
+      <c r="R5">
+        <v>14.44194734791949</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.75391688122205</v>
+        <v>12.1069345059394</v>
       </c>
       <c r="C6">
-        <v>7.274186057206054</v>
+        <v>7.052233673543537</v>
       </c>
       <c r="D6">
-        <v>5.206132476230929</v>
+        <v>5.134047052266881</v>
       </c>
       <c r="E6">
-        <v>7.156641402514524</v>
+        <v>7.057682354270038</v>
       </c>
       <c r="F6">
-        <v>24.58438346002909</v>
+        <v>23.32191343565222</v>
       </c>
       <c r="G6">
-        <v>34.34849186267338</v>
+        <v>31.99699022346124</v>
       </c>
       <c r="H6">
-        <v>3.579945433439233</v>
+        <v>3.368731421337642</v>
       </c>
       <c r="I6">
-        <v>4.249174689252841</v>
+        <v>3.984706819620975</v>
       </c>
       <c r="J6">
-        <v>11.98624198907622</v>
+        <v>11.57240354097411</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.16501160629035</v>
       </c>
       <c r="M6">
-        <v>9.887751037093739</v>
+        <v>12.96732358020108</v>
       </c>
       <c r="N6">
-        <v>5.806145827915881</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>9.680928913913112</v>
+        <v>9.89445263502458</v>
       </c>
       <c r="P6">
-        <v>14.8644414108095</v>
+        <v>6.044441363696419</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.48949196378652</v>
+      </c>
+      <c r="R6">
+        <v>14.44500792187364</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.01859084076589</v>
+        <v>12.35008738276572</v>
       </c>
       <c r="C7">
-        <v>7.359819613685755</v>
+        <v>7.160373619249194</v>
       </c>
       <c r="D7">
-        <v>5.230385817654136</v>
+        <v>5.169195434448516</v>
       </c>
       <c r="E7">
-        <v>7.21298472550883</v>
+        <v>7.105886932625248</v>
       </c>
       <c r="F7">
-        <v>24.75198702500121</v>
+        <v>23.43452800704394</v>
       </c>
       <c r="G7">
-        <v>34.59510921343355</v>
+        <v>32.23005797541984</v>
       </c>
       <c r="H7">
-        <v>3.515802716783019</v>
+        <v>3.310982288022198</v>
       </c>
       <c r="I7">
-        <v>4.194673095929309</v>
+        <v>3.938317920617138</v>
       </c>
       <c r="J7">
-        <v>12.00808568224056</v>
+        <v>11.55154932762353</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.14448251964012</v>
       </c>
       <c r="M7">
-        <v>10.11055961245403</v>
+        <v>12.98866435064843</v>
       </c>
       <c r="N7">
-        <v>5.860585765454813</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>9.800277307446706</v>
+        <v>10.10488641528602</v>
       </c>
       <c r="P7">
-        <v>14.82863914388153</v>
+        <v>6.097043169795808</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.60175931507508</v>
+      </c>
+      <c r="R7">
+        <v>14.40213497177316</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.14374593486865</v>
+        <v>13.39266153519915</v>
       </c>
       <c r="C8">
-        <v>7.716516062426456</v>
+        <v>7.620674999349355</v>
       </c>
       <c r="D8">
-        <v>5.331659679413116</v>
+        <v>5.313497817338491</v>
       </c>
       <c r="E8">
-        <v>7.457651818020675</v>
+        <v>7.313798004350727</v>
       </c>
       <c r="F8">
-        <v>25.52540604915503</v>
+        <v>24.00929392611479</v>
       </c>
       <c r="G8">
-        <v>35.7375046161027</v>
+        <v>33.17654334458841</v>
       </c>
       <c r="H8">
-        <v>3.241907820266679</v>
+        <v>3.063200340526579</v>
       </c>
       <c r="I8">
-        <v>3.95648491400554</v>
+        <v>3.732452009948097</v>
       </c>
       <c r="J8">
-        <v>12.12014222778155</v>
+        <v>11.56684964115879</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15.09194022292476</v>
       </c>
       <c r="M8">
-        <v>11.04169437193314</v>
+        <v>13.1476906487395</v>
       </c>
       <c r="N8">
-        <v>6.093020678676891</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>10.31577085285748</v>
+        <v>10.99720985723919</v>
       </c>
       <c r="P8">
-        <v>14.67943237463288</v>
+        <v>6.323460335927054</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.09055908078794</v>
+      </c>
+      <c r="R8">
+        <v>14.22698502603098</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.14970463032128</v>
+        <v>15.25921109806307</v>
       </c>
       <c r="C9">
-        <v>8.360445629782468</v>
+        <v>8.46459024300456</v>
       </c>
       <c r="D9">
-        <v>5.51369471570229</v>
+        <v>5.569602496926508</v>
       </c>
       <c r="E9">
-        <v>7.912905109467429</v>
+        <v>7.697994874979614</v>
       </c>
       <c r="F9">
-        <v>27.08920052763131</v>
+        <v>25.26191883563538</v>
       </c>
       <c r="G9">
-        <v>38.04292475428987</v>
+        <v>34.89472978542874</v>
       </c>
       <c r="H9">
-        <v>2.739006514949808</v>
+        <v>2.606912616850192</v>
       </c>
       <c r="I9">
-        <v>3.512568627287112</v>
+        <v>3.345382916501773</v>
       </c>
       <c r="J9">
-        <v>12.37603041995904</v>
+        <v>11.77581700839506</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.03576894627201</v>
       </c>
       <c r="M9">
-        <v>12.67404744170672</v>
+        <v>13.6377509732116</v>
       </c>
       <c r="N9">
-        <v>6.521948062009113</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>11.26901346252507</v>
+        <v>12.58122965751176</v>
       </c>
       <c r="P9">
-        <v>14.40549186848264</v>
+        <v>6.745653305810949</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.99961426489111</v>
+      </c>
+      <c r="R9">
+        <v>13.90981602642473</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.41007527880912</v>
+        <v>16.4064339471082</v>
       </c>
       <c r="C10">
-        <v>8.849423854624348</v>
+        <v>9.067962656252334</v>
       </c>
       <c r="D10">
-        <v>5.656178641993559</v>
+        <v>5.779670399909088</v>
       </c>
       <c r="E10">
-        <v>8.121390249711068</v>
+        <v>7.871250636776045</v>
       </c>
       <c r="F10">
-        <v>28.05230316424926</v>
+        <v>25.91694311032756</v>
       </c>
       <c r="G10">
-        <v>39.39936747218676</v>
+        <v>36.25086894329758</v>
       </c>
       <c r="H10">
-        <v>2.420821854812337</v>
+        <v>2.323894998139941</v>
       </c>
       <c r="I10">
-        <v>3.220299129674446</v>
+        <v>3.096772086810315</v>
       </c>
       <c r="J10">
-        <v>12.51484307144403</v>
+        <v>11.63584183497856</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.85021852225196</v>
       </c>
       <c r="M10">
-        <v>13.73788282428963</v>
+        <v>13.92926190896668</v>
       </c>
       <c r="N10">
-        <v>6.722222234457319</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>11.82680005382674</v>
+        <v>13.58707988079659</v>
       </c>
       <c r="P10">
-        <v>14.17277682594661</v>
+        <v>6.939422903149089</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.51872996538132</v>
+      </c>
+      <c r="R10">
+        <v>13.6422589368417</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.42413725748337</v>
+        <v>16.41284342244449</v>
       </c>
       <c r="C11">
-        <v>9.386999892798006</v>
+        <v>9.628715045003061</v>
       </c>
       <c r="D11">
-        <v>5.86419806628585</v>
+        <v>6.055178521328993</v>
       </c>
       <c r="E11">
-        <v>7.47398352179797</v>
+        <v>7.291326689053769</v>
       </c>
       <c r="F11">
-        <v>27.12229735169975</v>
+        <v>24.84733585140745</v>
       </c>
       <c r="G11">
-        <v>37.59772766129869</v>
+        <v>35.37236985007117</v>
       </c>
       <c r="H11">
-        <v>3.230885142053933</v>
+        <v>3.167781887402806</v>
       </c>
       <c r="I11">
-        <v>3.163385874370733</v>
+        <v>3.058048277777418</v>
       </c>
       <c r="J11">
-        <v>12.10453080615832</v>
+        <v>10.80839045607594</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.05423076019398</v>
       </c>
       <c r="M11">
-        <v>14.07792285338311</v>
+        <v>13.30173602894942</v>
       </c>
       <c r="N11">
-        <v>5.999663632089596</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>11.25562001453502</v>
+        <v>13.87082437980547</v>
       </c>
       <c r="P11">
-        <v>13.80696522998625</v>
+        <v>6.196979380302449</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.93993480062699</v>
+      </c>
+      <c r="R11">
+        <v>13.33947602425775</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.19850296088128</v>
+        <v>16.21911923381781</v>
       </c>
       <c r="C12">
-        <v>9.754719326056238</v>
+        <v>9.987809355360215</v>
       </c>
       <c r="D12">
-        <v>6.022568041539817</v>
+        <v>6.245345812578896</v>
       </c>
       <c r="E12">
-        <v>7.130881851624564</v>
+        <v>7.007844293889234</v>
       </c>
       <c r="F12">
-        <v>26.1669140703214</v>
+        <v>23.90504801227663</v>
       </c>
       <c r="G12">
-        <v>35.85439761503433</v>
+        <v>34.17854564611126</v>
       </c>
       <c r="H12">
-        <v>4.484568707637938</v>
+        <v>4.439692010270993</v>
       </c>
       <c r="I12">
-        <v>3.155460280899231</v>
+        <v>3.052461512179052</v>
       </c>
       <c r="J12">
-        <v>11.74294414029873</v>
+        <v>10.32782164201572</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.49939664515612</v>
       </c>
       <c r="M12">
-        <v>14.15288121954359</v>
+        <v>12.76331265657946</v>
       </c>
       <c r="N12">
-        <v>5.420483957659529</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>10.65999860142562</v>
+        <v>13.9263135515711</v>
       </c>
       <c r="P12">
-        <v>13.58443005443914</v>
+        <v>5.600770920193413</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.35260545561643</v>
+      </c>
+      <c r="R12">
+        <v>13.18624129358211</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.74227117509186</v>
+        <v>15.84015992456054</v>
       </c>
       <c r="C13">
-        <v>10.03236376673499</v>
+        <v>10.25457426809356</v>
       </c>
       <c r="D13">
-        <v>6.155022127907954</v>
+        <v>6.375300793802036</v>
       </c>
       <c r="E13">
-        <v>7.018640822643442</v>
+        <v>6.954545655683981</v>
       </c>
       <c r="F13">
-        <v>25.06664018254289</v>
+        <v>22.98538096076828</v>
       </c>
       <c r="G13">
-        <v>33.93194778292619</v>
+        <v>32.40454378099541</v>
       </c>
       <c r="H13">
-        <v>5.843176907685823</v>
+        <v>5.804966579837909</v>
       </c>
       <c r="I13">
-        <v>3.19919399433742</v>
+        <v>3.087932596454384</v>
       </c>
       <c r="J13">
-        <v>11.37789729551978</v>
+        <v>10.11888930957239</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.06786062106742</v>
       </c>
       <c r="M13">
-        <v>14.02683623608213</v>
+        <v>12.2534098157619</v>
       </c>
       <c r="N13">
-        <v>4.939952055248488</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.991208678460929</v>
+        <v>13.81952526717055</v>
       </c>
       <c r="P13">
-        <v>13.44848764311495</v>
+        <v>5.104906501508787</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.709228081469384</v>
+      </c>
+      <c r="R13">
+        <v>13.12469631949597</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.30695936505793</v>
+        <v>15.4802391362168</v>
       </c>
       <c r="C14">
-        <v>10.19491622101207</v>
+        <v>10.40922564000408</v>
       </c>
       <c r="D14">
-        <v>6.238437415011236</v>
+        <v>6.440213145268539</v>
       </c>
       <c r="E14">
-        <v>7.085849225673253</v>
+        <v>7.062711283974851</v>
       </c>
       <c r="F14">
-        <v>24.21560440141577</v>
+        <v>22.33461305097851</v>
       </c>
       <c r="G14">
-        <v>32.48017648446868</v>
+        <v>30.88911662863569</v>
       </c>
       <c r="H14">
-        <v>6.824215771247033</v>
+        <v>6.787546722787459</v>
       </c>
       <c r="I14">
-        <v>3.255766970514847</v>
+        <v>3.134552612756623</v>
       </c>
       <c r="J14">
-        <v>11.11886778905564</v>
+        <v>10.07456988674785</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.81117827526658</v>
       </c>
       <c r="M14">
-        <v>13.84536007008682</v>
+        <v>11.90768388338562</v>
       </c>
       <c r="N14">
-        <v>4.680577551645997</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>9.484838111479446</v>
+        <v>13.66886726860431</v>
       </c>
       <c r="P14">
-        <v>13.39542566104891</v>
+        <v>4.835153964350966</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.228068804951432</v>
+      </c>
+      <c r="R14">
+        <v>13.12062119518348</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.14377362608623</v>
+        <v>15.3447236835239</v>
       </c>
       <c r="C15">
-        <v>10.21795088404066</v>
+        <v>10.43193934850153</v>
       </c>
       <c r="D15">
-        <v>6.252748147197473</v>
+        <v>6.443317414946663</v>
       </c>
       <c r="E15">
-        <v>7.115431097999281</v>
+        <v>7.103548130310211</v>
       </c>
       <c r="F15">
-        <v>23.96668553313939</v>
+        <v>22.16636488392389</v>
       </c>
       <c r="G15">
-        <v>32.06930526163568</v>
+        <v>30.39445580452716</v>
       </c>
       <c r="H15">
-        <v>7.055587736045565</v>
+        <v>7.018306666241402</v>
       </c>
       <c r="I15">
-        <v>3.285361884106973</v>
+        <v>3.160170900361581</v>
       </c>
       <c r="J15">
-        <v>11.0519095832637</v>
+        <v>10.10463879139579</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.76219688454612</v>
       </c>
       <c r="M15">
-        <v>13.75629102831317</v>
+        <v>11.82336602038043</v>
       </c>
       <c r="N15">
-        <v>4.628740406543522</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>9.343975662689319</v>
+        <v>13.59491082979272</v>
       </c>
       <c r="P15">
-        <v>13.39616259085514</v>
+        <v>4.781706122472354</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.096527845751657</v>
+      </c>
+      <c r="R15">
+        <v>13.13287768509221</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.67175184056033</v>
+        <v>14.9482653148241</v>
       </c>
       <c r="C16">
-        <v>9.976955201558381</v>
+        <v>10.19915100974704</v>
       </c>
       <c r="D16">
-        <v>6.166362626803585</v>
+        <v>6.301346425270562</v>
       </c>
       <c r="E16">
-        <v>7.032592849033358</v>
+        <v>7.034492226791714</v>
       </c>
       <c r="F16">
-        <v>23.71621019120649</v>
+        <v>22.17668746252329</v>
       </c>
       <c r="G16">
-        <v>31.77271913282412</v>
+        <v>29.5447335529949</v>
       </c>
       <c r="H16">
-        <v>6.881147962602639</v>
+        <v>6.834108410207908</v>
       </c>
       <c r="I16">
-        <v>3.406515918556579</v>
+        <v>3.260929893375068</v>
       </c>
       <c r="J16">
-        <v>11.05606175452956</v>
+        <v>10.48965061111709</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.93383585605264</v>
       </c>
       <c r="M16">
-        <v>13.3362089963705</v>
+        <v>11.86924073737087</v>
       </c>
       <c r="N16">
-        <v>4.626446362124677</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>9.21249332941583</v>
+        <v>13.23855701036716</v>
       </c>
       <c r="P16">
-        <v>13.51716445257103</v>
+        <v>4.790562909291133</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.991186270884874</v>
+      </c>
+      <c r="R16">
+        <v>13.25139493470558</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.54569251848243</v>
+        <v>14.83220010977328</v>
       </c>
       <c r="C17">
-        <v>9.697698546198918</v>
+        <v>9.921145360126541</v>
       </c>
       <c r="D17">
-        <v>6.053905026894983</v>
+        <v>6.162627035047319</v>
       </c>
       <c r="E17">
-        <v>6.906338484319487</v>
+        <v>6.892899791176998</v>
       </c>
       <c r="F17">
-        <v>23.98724278510391</v>
+        <v>22.51360280779701</v>
       </c>
       <c r="G17">
-        <v>32.33333872411049</v>
+        <v>29.80230323681296</v>
       </c>
       <c r="H17">
-        <v>6.200653633104083</v>
+        <v>6.143371934603131</v>
       </c>
       <c r="I17">
-        <v>3.470299899457817</v>
+        <v>3.315119444365898</v>
       </c>
       <c r="J17">
-        <v>11.19717662238668</v>
+        <v>10.7756288637692</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.20354044275917</v>
       </c>
       <c r="M17">
-        <v>13.10808433093394</v>
+        <v>12.07411251978918</v>
       </c>
       <c r="N17">
-        <v>4.74838616036651</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>9.386928839154361</v>
+        <v>13.03550755587998</v>
       </c>
       <c r="P17">
-        <v>13.63618539737827</v>
+        <v>4.926043032523645</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.170051392581275</v>
+      </c>
+      <c r="R17">
+        <v>13.34795125935579</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.72345289473071</v>
+        <v>14.97306288028488</v>
       </c>
       <c r="C18">
-        <v>9.354597329165658</v>
+        <v>9.577680414540781</v>
       </c>
       <c r="D18">
-        <v>5.909854118690436</v>
+        <v>6.006115777867062</v>
       </c>
       <c r="E18">
-        <v>6.872109325884594</v>
+        <v>6.812008031680548</v>
       </c>
       <c r="F18">
-        <v>24.76041915329664</v>
+        <v>23.23149146087278</v>
       </c>
       <c r="G18">
-        <v>33.73956975500587</v>
+        <v>30.93878756126627</v>
       </c>
       <c r="H18">
-        <v>5.050761983428425</v>
+        <v>4.979151895292103</v>
       </c>
       <c r="I18">
-        <v>3.47975952436789</v>
+        <v>3.320956635320452</v>
       </c>
       <c r="J18">
-        <v>11.48140747148743</v>
+        <v>11.08818253163916</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.62946235625212</v>
       </c>
       <c r="M18">
-        <v>13.02815566850937</v>
+        <v>12.46831174278916</v>
       </c>
       <c r="N18">
-        <v>5.068046977206228</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.852151243339465</v>
+        <v>12.95962328944775</v>
       </c>
       <c r="P18">
-        <v>13.78531231575297</v>
+        <v>5.260992672750034</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.625076690189733</v>
+      </c>
+      <c r="R18">
+        <v>13.45289653643146</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.09561798366616</v>
+        <v>15.27966322291817</v>
       </c>
       <c r="C19">
-        <v>9.035760608540784</v>
+        <v>9.256931118266706</v>
       </c>
       <c r="D19">
-        <v>5.769426203249014</v>
+        <v>5.86011592513601</v>
       </c>
       <c r="E19">
-        <v>7.123470677455418</v>
+        <v>6.993307337267647</v>
       </c>
       <c r="F19">
-        <v>25.81425194773414</v>
+        <v>24.15700079433413</v>
       </c>
       <c r="G19">
-        <v>35.61246006582227</v>
+        <v>32.53854876647627</v>
       </c>
       <c r="H19">
-        <v>3.747812553115133</v>
+        <v>3.65560782018089</v>
       </c>
       <c r="I19">
-        <v>3.459410395586162</v>
+        <v>3.305525144587467</v>
       </c>
       <c r="J19">
-        <v>11.8432584223047</v>
+        <v>11.41432719028094</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.13633823176763</v>
       </c>
       <c r="M19">
-        <v>13.07008549828745</v>
+        <v>12.96893618714971</v>
       </c>
       <c r="N19">
-        <v>5.614620847177554</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>10.50817344424976</v>
+        <v>12.9929329645693</v>
       </c>
       <c r="P19">
-        <v>13.96161867164409</v>
+        <v>5.821136643972579</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.26179013351031</v>
+      </c>
+      <c r="R19">
+        <v>13.56920046672765</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.03398597492436</v>
+        <v>16.07759961555242</v>
       </c>
       <c r="C20">
-        <v>8.757339927193289</v>
+        <v>8.97266338174626</v>
       </c>
       <c r="D20">
-        <v>5.62888884470429</v>
+        <v>5.728775532807607</v>
       </c>
       <c r="E20">
-        <v>8.048390424892574</v>
+        <v>7.806378171985711</v>
       </c>
       <c r="F20">
-        <v>27.69412163126424</v>
+        <v>25.71204970143266</v>
       </c>
       <c r="G20">
-        <v>38.85709512690116</v>
+        <v>35.49683427703938</v>
       </c>
       <c r="H20">
-        <v>2.506511990853229</v>
+        <v>2.39828633072477</v>
       </c>
       <c r="I20">
-        <v>3.324806433588255</v>
+        <v>3.192972635793032</v>
       </c>
       <c r="J20">
-        <v>12.44074732822161</v>
+        <v>11.78825199215719</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.86753659832401</v>
       </c>
       <c r="M20">
-        <v>13.45732589582518</v>
+        <v>13.81736039285976</v>
       </c>
       <c r="N20">
-        <v>6.671278025891056</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>11.66389599046387</v>
+        <v>13.33901481555619</v>
       </c>
       <c r="P20">
-        <v>14.21160003503413</v>
+        <v>6.89105784152382</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.37308658825152</v>
+      </c>
+      <c r="R20">
+        <v>13.70472339592192</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.05953877304133</v>
+        <v>16.92489502385201</v>
       </c>
       <c r="C21">
-        <v>9.067917062245101</v>
+        <v>9.276986380573277</v>
       </c>
       <c r="D21">
-        <v>5.711554485455521</v>
+        <v>5.902055789241561</v>
       </c>
       <c r="E21">
-        <v>8.364956905594896</v>
+        <v>8.099719288863181</v>
       </c>
       <c r="F21">
-        <v>28.68593037600785</v>
+        <v>26.09219139931079</v>
       </c>
       <c r="G21">
-        <v>40.34402023983137</v>
+        <v>38.09897543418361</v>
       </c>
       <c r="H21">
-        <v>2.223291657300415</v>
+        <v>2.151247140043919</v>
       </c>
       <c r="I21">
-        <v>3.091691035714207</v>
+        <v>3.003084232494028</v>
       </c>
       <c r="J21">
-        <v>12.64033843824161</v>
+        <v>11.00465414364</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.70404663474699</v>
       </c>
       <c r="M21">
-        <v>14.25901279235091</v>
+        <v>14.02942500342562</v>
       </c>
       <c r="N21">
-        <v>6.973275474933002</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>12.22611587826325</v>
+        <v>14.00832622857027</v>
       </c>
       <c r="P21">
-        <v>14.08718619012849</v>
+        <v>7.184802367089175</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.86844137560805</v>
+      </c>
+      <c r="R21">
+        <v>13.49127968187637</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.69209802085882</v>
+        <v>17.44311998107028</v>
       </c>
       <c r="C22">
-        <v>9.270955161801835</v>
+        <v>9.470198979723044</v>
       </c>
       <c r="D22">
-        <v>5.767982081246107</v>
+        <v>6.021447766813828</v>
       </c>
       <c r="E22">
-        <v>8.521066388498873</v>
+        <v>8.247988137247809</v>
       </c>
       <c r="F22">
-        <v>29.28961504289166</v>
+        <v>26.284727584682</v>
       </c>
       <c r="G22">
-        <v>41.23612905540534</v>
+        <v>39.83068342336165</v>
       </c>
       <c r="H22">
-        <v>2.054408967353425</v>
+        <v>2.005508884996913</v>
       </c>
       <c r="I22">
-        <v>2.934380712774332</v>
+        <v>2.871103104807923</v>
       </c>
       <c r="J22">
-        <v>12.75938425242678</v>
+        <v>10.46809407162869</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.57216046949467</v>
       </c>
       <c r="M22">
-        <v>14.75775050310885</v>
+        <v>14.14726133361178</v>
       </c>
       <c r="N22">
-        <v>7.113811729677343</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>12.5414732037247</v>
+        <v>14.41907348255235</v>
       </c>
       <c r="P22">
-        <v>13.99896654813235</v>
+        <v>7.319523679119019</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>12.13984457823854</v>
+      </c>
+      <c r="R22">
+        <v>13.34495495437715</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.37545814982033</v>
+        <v>17.19711741929119</v>
       </c>
       <c r="C23">
-        <v>9.150879757951426</v>
+        <v>9.363116612286957</v>
       </c>
       <c r="D23">
-        <v>5.734595989695825</v>
+        <v>5.947547639188028</v>
       </c>
       <c r="E23">
-        <v>8.443466504256049</v>
+        <v>8.171348782350982</v>
       </c>
       <c r="F23">
-        <v>29.00421780907805</v>
+        <v>26.26420018845501</v>
       </c>
       <c r="G23">
-        <v>40.82512663332704</v>
+        <v>38.80425131951721</v>
       </c>
       <c r="H23">
-        <v>2.142904976461192</v>
+        <v>2.080751482666461</v>
       </c>
       <c r="I23">
-        <v>3.006413525415192</v>
+        <v>2.926556215527635</v>
       </c>
       <c r="J23">
-        <v>12.70857380494202</v>
+        <v>10.858102686313</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.68267736958401</v>
       </c>
       <c r="M23">
-        <v>14.49660104627767</v>
+        <v>14.12812489049115</v>
       </c>
       <c r="N23">
-        <v>7.037077441228836</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>12.37947070536012</v>
+        <v>14.21620606747721</v>
       </c>
       <c r="P23">
-        <v>14.05382628161684</v>
+        <v>7.246695889988142</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>12.00550332016784</v>
+      </c>
+      <c r="R23">
+        <v>13.43436929356863</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.09406397584322</v>
+        <v>16.13083703014342</v>
       </c>
       <c r="C24">
-        <v>8.707093260873195</v>
+        <v>8.913272186785154</v>
       </c>
       <c r="D24">
-        <v>5.610738222440577</v>
+        <v>5.707311017408752</v>
       </c>
       <c r="E24">
-        <v>8.133753778899939</v>
+        <v>7.884322182777298</v>
       </c>
       <c r="F24">
-        <v>27.85714681999969</v>
+        <v>25.86214179778656</v>
       </c>
       <c r="G24">
-        <v>39.15016867084218</v>
+        <v>35.74907356642829</v>
       </c>
       <c r="H24">
-        <v>2.487009038888321</v>
+        <v>2.378929449559722</v>
       </c>
       <c r="I24">
-        <v>3.30556098244645</v>
+        <v>3.170858655675757</v>
       </c>
       <c r="J24">
-        <v>12.49978271306697</v>
+        <v>11.84757783528323</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.96054548974487</v>
       </c>
       <c r="M24">
-        <v>13.45962867357872</v>
+        <v>13.90634680807049</v>
       </c>
       <c r="N24">
-        <v>6.742957124652293</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>11.73857909591135</v>
+        <v>13.34095356438413</v>
       </c>
       <c r="P24">
-        <v>14.25050586803795</v>
+        <v>6.963997289429957</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.44572526240993</v>
+      </c>
+      <c r="R24">
+        <v>13.73327097435854</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.60023474691404</v>
+        <v>14.7547868392203</v>
       </c>
       <c r="C25">
-        <v>8.20976529353425</v>
+        <v>8.274651458238896</v>
       </c>
       <c r="D25">
-        <v>5.470804729125469</v>
+        <v>5.504924807024699</v>
       </c>
       <c r="E25">
-        <v>7.784484572670275</v>
+        <v>7.587973671445977</v>
       </c>
       <c r="F25">
-        <v>26.60857344647843</v>
+        <v>24.89553064643103</v>
       </c>
       <c r="G25">
-        <v>37.31879630614907</v>
+        <v>34.23881145812797</v>
       </c>
       <c r="H25">
-        <v>2.873483576628856</v>
+        <v>2.728084621581174</v>
       </c>
       <c r="I25">
-        <v>3.644301323317954</v>
+        <v>3.463722497253897</v>
       </c>
       <c r="J25">
-        <v>12.28462861361234</v>
+        <v>11.7620142955069</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15.03073473914641</v>
       </c>
       <c r="M25">
-        <v>12.24839460853654</v>
+        <v>13.471374844818</v>
       </c>
       <c r="N25">
-        <v>6.411921854543769</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>11.00975605590075</v>
+        <v>12.17575652609791</v>
       </c>
       <c r="P25">
-        <v>14.46661513087264</v>
+        <v>6.637500193644835</v>
       </c>
       <c r="Q25">
+        <v>10.75528584489855</v>
+      </c>
+      <c r="R25">
+        <v>13.98931701479798</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
